--- a/results_final/ei_HM.xlsx
+++ b/results_final/ei_HM.xlsx
@@ -614,94 +614,94 @@
         <v>1.560826639597812</v>
       </c>
       <c r="C3">
-        <v>1.242580578481868</v>
+        <v>1.242580578481869</v>
       </c>
       <c r="D3">
-        <v>1.02364405829409</v>
+        <v>1.023644058294092</v>
       </c>
       <c r="E3">
-        <v>0.8681598903973756</v>
+        <v>0.8681598903973778</v>
       </c>
       <c r="F3">
-        <v>0.754714775434572</v>
+        <v>0.7547147754345743</v>
       </c>
       <c r="G3">
-        <v>0.6700211584700381</v>
+        <v>0.6700211584700405</v>
       </c>
       <c r="H3">
-        <v>0.6055476633214774</v>
+        <v>0.6055476633214798</v>
       </c>
       <c r="I3">
-        <v>0.5556472580015476</v>
+        <v>0.55564725800155</v>
       </c>
       <c r="J3">
-        <v>0.5164786719978386</v>
+        <v>0.516478671997841</v>
       </c>
       <c r="K3">
-        <v>0.4853640725959485</v>
+        <v>0.485364072595951</v>
       </c>
       <c r="L3">
-        <v>0.4603949750869388</v>
+        <v>0.4603949750869413</v>
       </c>
       <c r="M3">
-        <v>0.4401838266138435</v>
+        <v>0.4401838266138459</v>
       </c>
       <c r="N3">
-        <v>0.4237035103379883</v>
+        <v>0.4237035103379906</v>
       </c>
       <c r="O3">
-        <v>0.4101812890666083</v>
+        <v>0.4101812890666107</v>
       </c>
       <c r="P3">
-        <v>0.3990272559117023</v>
+        <v>0.3990272559117046</v>
       </c>
       <c r="Q3">
-        <v>0.3897851327356459</v>
+        <v>0.3897851327356482</v>
       </c>
       <c r="R3">
-        <v>0.3820978310362539</v>
+        <v>0.3820978310362562</v>
       </c>
       <c r="S3">
-        <v>0.3756829447254594</v>
+        <v>0.3756829447254617</v>
       </c>
       <c r="T3">
-        <v>0.3703150395044523</v>
+        <v>0.3703150395044545</v>
       </c>
       <c r="U3">
-        <v>0.3658126677073621</v>
+        <v>0.3658126677073643</v>
       </c>
       <c r="V3">
-        <v>0.362028717912086</v>
+        <v>0.3620287179120882</v>
       </c>
       <c r="W3">
-        <v>0.3588431511666748</v>
+        <v>0.3588431511666769</v>
       </c>
       <c r="X3">
-        <v>0.3561574681118161</v>
+        <v>0.3561574681118183</v>
       </c>
       <c r="Y3">
-        <v>0.3538904473871982</v>
+        <v>0.3538904473872004</v>
       </c>
       <c r="Z3">
-        <v>0.351974829044054</v>
+        <v>0.3519748290440561</v>
       </c>
       <c r="AA3">
-        <v>0.3503547085187989</v>
+        <v>0.3503547085188009</v>
       </c>
       <c r="AB3">
-        <v>0.3489834707449372</v>
+        <v>0.3489834707449392</v>
       </c>
       <c r="AC3">
-        <v>0.3478221391314004</v>
+        <v>0.3478221391314025</v>
       </c>
       <c r="AD3">
-        <v>0.3468380463293269</v>
+        <v>0.346838046329329</v>
       </c>
       <c r="AE3">
-        <v>0.3460037569076405</v>
+        <v>0.3460037569076425</v>
       </c>
       <c r="AF3">
-        <v>0.3452961889452376</v>
+        <v>0.3452961889452397</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1199,97 +1199,97 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.127814202433856</v>
+        <v>2.127814202433855</v>
       </c>
       <c r="C9">
-        <v>1.564657177444223</v>
+        <v>1.564657177444222</v>
       </c>
       <c r="D9">
-        <v>1.204846903975001</v>
+        <v>1.204846903975</v>
       </c>
       <c r="E9">
-        <v>0.9648674040431798</v>
+        <v>0.9648674040431791</v>
       </c>
       <c r="F9">
-        <v>0.7988643458024849</v>
+        <v>0.7988643458024841</v>
       </c>
       <c r="G9">
-        <v>0.6804208789280334</v>
+        <v>0.6804208789280326</v>
       </c>
       <c r="H9">
-        <v>0.5936582885287061</v>
+        <v>0.5936582885287054</v>
       </c>
       <c r="I9">
-        <v>0.528666272175966</v>
+        <v>0.5286662721759653</v>
       </c>
       <c r="J9">
-        <v>0.4790489718467937</v>
+        <v>0.4790489718467931</v>
       </c>
       <c r="K9">
-        <v>0.4405533159010623</v>
+        <v>0.4405533159010617</v>
       </c>
       <c r="L9">
-        <v>0.4102742422760349</v>
+        <v>0.4102742422760343</v>
       </c>
       <c r="M9">
-        <v>0.3861790084299553</v>
+        <v>0.3861790084299547</v>
       </c>
       <c r="N9">
-        <v>0.3668140081645792</v>
+        <v>0.3668140081645787</v>
       </c>
       <c r="O9">
-        <v>0.3511191968582574</v>
+        <v>0.3511191968582569</v>
       </c>
       <c r="P9">
-        <v>0.3383077424736842</v>
+        <v>0.3383077424736837</v>
       </c>
       <c r="Q9">
-        <v>0.3277862225181519</v>
+        <v>0.3277862225181514</v>
       </c>
       <c r="R9">
-        <v>0.3191006140565748</v>
+        <v>0.3191006140565743</v>
       </c>
       <c r="S9">
-        <v>0.311899043403335</v>
+        <v>0.3118990434033345</v>
       </c>
       <c r="T9">
-        <v>0.3059056407242742</v>
+        <v>0.3059056407242737</v>
       </c>
       <c r="U9">
-        <v>0.3009018869908786</v>
+        <v>0.3009018869908781</v>
       </c>
       <c r="V9">
-        <v>0.2967131016393446</v>
+        <v>0.2967131016393441</v>
       </c>
       <c r="W9">
-        <v>0.2931985132398023</v>
+        <v>0.2931985132398019</v>
       </c>
       <c r="X9">
-        <v>0.2902438645774584</v>
+        <v>0.290243864577458</v>
       </c>
       <c r="Y9">
-        <v>0.2877558355390084</v>
+        <v>0.287755835539008</v>
       </c>
       <c r="Z9">
-        <v>0.2856577871130498</v>
+        <v>0.2856577871130494</v>
       </c>
       <c r="AA9">
-        <v>0.2838864776279339</v>
+        <v>0.2838864776279335</v>
       </c>
       <c r="AB9">
-        <v>0.2823895030659507</v>
+        <v>0.2823895030659503</v>
       </c>
       <c r="AC9">
-        <v>0.281123282799028</v>
+        <v>0.2811232827990276</v>
       </c>
       <c r="AD9">
-        <v>0.2800514606405091</v>
+        <v>0.2800514606405086</v>
       </c>
       <c r="AE9">
-        <v>0.2791436254084324</v>
+        <v>0.279143625408432</v>
       </c>
       <c r="AF9">
-        <v>0.2783742796955134</v>
+        <v>0.278374279695513</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.411902709128922</v>
       </c>
       <c r="C10">
-        <v>0.9678782929456791</v>
+        <v>0.9678782929456797</v>
       </c>
       <c r="D10">
-        <v>0.7021571642522065</v>
+        <v>0.7021571642522072</v>
       </c>
       <c r="E10">
-        <v>0.5345100504696009</v>
+        <v>0.5345100504696014</v>
       </c>
       <c r="F10">
-        <v>0.423886112596614</v>
+        <v>0.4238861125966145</v>
       </c>
       <c r="G10">
-        <v>0.3480555026165717</v>
+        <v>0.3480555026165721</v>
       </c>
       <c r="H10">
-        <v>0.294366187142303</v>
+        <v>0.2943661871423034</v>
       </c>
       <c r="I10">
-        <v>0.25529448215891</v>
+        <v>0.2552944821589104</v>
       </c>
       <c r="J10">
-        <v>0.2261892226425355</v>
+        <v>0.2261892226425359</v>
       </c>
       <c r="K10">
-        <v>0.2040740652212887</v>
+        <v>0.2040740652212891</v>
       </c>
       <c r="L10">
-        <v>0.1869848143579523</v>
+        <v>0.1869848143579526</v>
       </c>
       <c r="M10">
-        <v>0.1735889518779599</v>
+        <v>0.1735889518779603</v>
       </c>
       <c r="N10">
-        <v>0.1629597924301452</v>
+        <v>0.1629597924301455</v>
       </c>
       <c r="O10">
-        <v>0.1544383266695845</v>
+        <v>0.1544383266695849</v>
       </c>
       <c r="P10">
-        <v>0.1475463662886167</v>
+        <v>0.1475463662886171</v>
       </c>
       <c r="Q10">
-        <v>0.1419305659814998</v>
+        <v>0.1419305659815001</v>
       </c>
       <c r="R10">
-        <v>0.1373255156542234</v>
+        <v>0.1373255156542237</v>
       </c>
       <c r="S10">
-        <v>0.1335288924336726</v>
+        <v>0.1335288924336729</v>
       </c>
       <c r="T10">
-        <v>0.1303844062857119</v>
+        <v>0.1303844062857122</v>
       </c>
       <c r="U10">
-        <v>0.1277698837690583</v>
+        <v>0.1277698837690585</v>
       </c>
       <c r="V10">
-        <v>0.1255888023184364</v>
+        <v>0.1255888023184367</v>
       </c>
       <c r="W10">
-        <v>0.1237641817805558</v>
+        <v>0.1237641817805561</v>
       </c>
       <c r="X10">
-        <v>0.1222341122699517</v>
+        <v>0.1222341122699519</v>
       </c>
       <c r="Y10">
-        <v>0.1209484350500917</v>
+        <v>0.120948435050092</v>
       </c>
       <c r="Z10">
-        <v>0.1198662474421109</v>
+        <v>0.1198662474421112</v>
       </c>
       <c r="AA10">
-        <v>0.1189540045599043</v>
+        <v>0.1189540045599046</v>
       </c>
       <c r="AB10">
-        <v>0.1181840588350415</v>
+        <v>0.1181840588350418</v>
       </c>
       <c r="AC10">
-        <v>0.1175335245766438</v>
+        <v>0.1175335245766441</v>
       </c>
       <c r="AD10">
-        <v>0.1169833866460329</v>
+        <v>0.1169833866460332</v>
       </c>
       <c r="AE10">
-        <v>0.1165177944927448</v>
+        <v>0.1165177944927451</v>
       </c>
       <c r="AF10">
-        <v>0.1161234984132021</v>
+        <v>0.1161234984132024</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,10 +1395,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.507308620165567</v>
+        <v>1.507308620165566</v>
       </c>
       <c r="C11">
-        <v>1.365761454906527</v>
+        <v>1.365761454906526</v>
       </c>
       <c r="D11">
         <v>1.255947888853821</v>
@@ -1416,76 +1416,76 @@
         <v>1.000849300339586</v>
       </c>
       <c r="I11">
-        <v>0.9643093610796183</v>
+        <v>0.9643093610796181</v>
       </c>
       <c r="J11">
-        <v>0.9343012321724354</v>
+        <v>0.9343012321724352</v>
       </c>
       <c r="K11">
-        <v>0.9095296884182087</v>
+        <v>0.9095296884182085</v>
       </c>
       <c r="L11">
-        <v>0.8889909585202792</v>
+        <v>0.888990958520279</v>
       </c>
       <c r="M11">
-        <v>0.8718981149077309</v>
+        <v>0.8718981149077307</v>
       </c>
       <c r="N11">
-        <v>0.857627847306228</v>
+        <v>0.8576278473062278</v>
       </c>
       <c r="O11">
-        <v>0.8456819073975012</v>
+        <v>0.8456819073975009</v>
       </c>
       <c r="P11">
-        <v>0.8356587784802414</v>
+        <v>0.8356587784802412</v>
       </c>
       <c r="Q11">
-        <v>0.8272325773178653</v>
+        <v>0.827232577317865</v>
       </c>
       <c r="R11">
-        <v>0.8201371430089226</v>
+        <v>0.8201371430089224</v>
       </c>
       <c r="S11">
-        <v>0.814153895416391</v>
+        <v>0.8141538954163908</v>
       </c>
       <c r="T11">
-        <v>0.8091024675750431</v>
+        <v>0.8091024675750429</v>
       </c>
       <c r="U11">
-        <v>0.8048334039374868</v>
+        <v>0.8048334039374866</v>
       </c>
       <c r="V11">
-        <v>0.8012224146810139</v>
+        <v>0.8012224146810136</v>
       </c>
       <c r="W11">
-        <v>0.7981658148447874</v>
+        <v>0.7981658148447872</v>
       </c>
       <c r="X11">
-        <v>0.7955768749486571</v>
+        <v>0.7955768749486569</v>
       </c>
       <c r="Y11">
-        <v>0.7933828796552974</v>
+        <v>0.7933828796552972</v>
       </c>
       <c r="Z11">
-        <v>0.7915227414957711</v>
+        <v>0.7915227414957708</v>
       </c>
       <c r="AA11">
-        <v>0.7899450534683662</v>
+        <v>0.789945053468366</v>
       </c>
       <c r="AB11">
-        <v>0.7886064914099638</v>
+        <v>0.7886064914099635</v>
       </c>
       <c r="AC11">
-        <v>0.7874704971787784</v>
+        <v>0.7874704971787782</v>
       </c>
       <c r="AD11">
-        <v>0.7865061888016882</v>
+        <v>0.786506188801688</v>
       </c>
       <c r="AE11">
-        <v>0.7856874551874414</v>
+        <v>0.7856874551874412</v>
       </c>
       <c r="AF11">
-        <v>0.7849922017566064</v>
+        <v>0.7849922017566062</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1496,94 +1496,94 @@
         <v>2.434219760368954</v>
       </c>
       <c r="C12">
-        <v>2.071510060701156</v>
+        <v>2.071510060701154</v>
       </c>
       <c r="D12">
-        <v>1.806031083536089</v>
+        <v>1.806031083536087</v>
       </c>
       <c r="E12">
-        <v>1.607302678319545</v>
+        <v>1.607302678319543</v>
       </c>
       <c r="F12">
-        <v>1.455674415215696</v>
+        <v>1.455674415215694</v>
       </c>
       <c r="G12">
-        <v>1.338091593998528</v>
+        <v>1.338091593998526</v>
       </c>
       <c r="H12">
-        <v>1.245644735513807</v>
+        <v>1.245644735513805</v>
       </c>
       <c r="I12">
-        <v>1.172104405189109</v>
+        <v>1.172104405189106</v>
       </c>
       <c r="J12">
-        <v>1.113019015823448</v>
+        <v>1.113019015823446</v>
       </c>
       <c r="K12">
-        <v>1.065144250523009</v>
+        <v>1.065144250523006</v>
       </c>
       <c r="L12">
-        <v>1.026073317517311</v>
+        <v>1.026073317517308</v>
       </c>
       <c r="M12">
-        <v>0.9939919469155932</v>
+        <v>0.9939919469155906</v>
       </c>
       <c r="N12">
-        <v>0.9675126829253387</v>
+        <v>0.967512682925336</v>
       </c>
       <c r="O12">
-        <v>0.9455606654280109</v>
+        <v>0.9455606654280082</v>
       </c>
       <c r="P12">
-        <v>0.9272935069327584</v>
+        <v>0.9272935069327557</v>
       </c>
       <c r="Q12">
-        <v>0.9120441599557036</v>
+        <v>0.912044159955701</v>
       </c>
       <c r="R12">
-        <v>0.8992795502356894</v>
+        <v>0.8992795502356867</v>
       </c>
       <c r="S12">
-        <v>0.8885701929959122</v>
+        <v>0.8885701929959096</v>
       </c>
       <c r="T12">
-        <v>0.8795675742743595</v>
+        <v>0.8795675742743569</v>
       </c>
       <c r="U12">
-        <v>0.87198709923979</v>
+        <v>0.8719870992397875</v>
       </c>
       <c r="V12">
-        <v>0.865595084661117</v>
+        <v>0.8655950846611145</v>
       </c>
       <c r="W12">
-        <v>0.8601987263511965</v>
+        <v>0.8601987263511939</v>
       </c>
       <c r="X12">
-        <v>0.8556382813729554</v>
+        <v>0.8556382813729527</v>
       </c>
       <c r="Y12">
-        <v>0.8517809179338264</v>
+        <v>0.8517809179338237</v>
       </c>
       <c r="Z12">
-        <v>0.8485158347110676</v>
+        <v>0.848515834711065</v>
       </c>
       <c r="AA12">
-        <v>0.8457503564527054</v>
+        <v>0.8457503564527027</v>
       </c>
       <c r="AB12">
-        <v>0.8434067877426094</v>
+        <v>0.8434067877426067</v>
       </c>
       <c r="AC12">
-        <v>0.8414198609651916</v>
+        <v>0.8414198609651889</v>
       </c>
       <c r="AD12">
-        <v>0.839734653972686</v>
+        <v>0.8397346539726833</v>
       </c>
       <c r="AE12">
-        <v>0.8383048820107195</v>
+        <v>0.8383048820107168</v>
       </c>
       <c r="AF12">
-        <v>0.8370914900510353</v>
+        <v>0.8370914900510327</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1591,97 +1591,97 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.294687646522454</v>
+        <v>1.294687646522455</v>
       </c>
       <c r="C13">
-        <v>1.335384803242596</v>
+        <v>1.335384803242597</v>
       </c>
       <c r="D13">
-        <v>1.370981647856103</v>
+        <v>1.370981647856105</v>
       </c>
       <c r="E13">
-        <v>1.401984044907979</v>
+        <v>1.401984044907981</v>
       </c>
       <c r="F13">
-        <v>1.428886676322271</v>
+        <v>1.428886676322274</v>
       </c>
       <c r="G13">
-        <v>1.452159414565637</v>
+        <v>1.45215941456564</v>
       </c>
       <c r="H13">
-        <v>1.472239029027346</v>
+        <v>1.47223902902735</v>
       </c>
       <c r="I13">
-        <v>1.489524852681634</v>
+        <v>1.489524852681638</v>
       </c>
       <c r="J13">
-        <v>1.504377283553969</v>
+        <v>1.504377283553973</v>
       </c>
       <c r="K13">
-        <v>1.517118233459418</v>
+        <v>1.517118233459422</v>
       </c>
       <c r="L13">
-        <v>1.528032846376872</v>
+        <v>1.528032846376877</v>
       </c>
       <c r="M13">
-        <v>1.537371983954748</v>
+        <v>1.537371983954753</v>
       </c>
       <c r="N13">
-        <v>1.545355116034132</v>
+        <v>1.545355116034138</v>
       </c>
       <c r="O13">
-        <v>1.55217336315117</v>
+        <v>1.552173363151175</v>
       </c>
       <c r="P13">
-        <v>1.55799252053232</v>
+        <v>1.557992520532326</v>
       </c>
       <c r="Q13">
-        <v>1.562955954116138</v>
+        <v>1.562955954116144</v>
       </c>
       <c r="R13">
-        <v>1.567187303219664</v>
+        <v>1.56718730321967</v>
       </c>
       <c r="S13">
-        <v>1.570792955562552</v>
+        <v>1.570792955562558</v>
       </c>
       <c r="T13">
-        <v>1.573864281704554</v>
+        <v>1.57386428170456</v>
       </c>
       <c r="U13">
-        <v>1.576479630111682</v>
+        <v>1.576479630111688</v>
       </c>
       <c r="V13">
-        <v>1.57870609303301</v>
+        <v>1.578706093033016</v>
       </c>
       <c r="W13">
-        <v>1.580601058653354</v>
+        <v>1.580601058653361</v>
       </c>
       <c r="X13">
-        <v>1.582213567712571</v>
+        <v>1.582213567712578</v>
       </c>
       <c r="Y13">
-        <v>1.583585493776313</v>
+        <v>1.58358549377632</v>
       </c>
       <c r="Z13">
-        <v>1.584752566202948</v>
+        <v>1.584752566202954</v>
       </c>
       <c r="AA13">
-        <v>1.585745254002324</v>
+        <v>1.58574525400233</v>
       </c>
       <c r="AB13">
-        <v>1.586589527521579</v>
+        <v>1.586589527521586</v>
       </c>
       <c r="AC13">
-        <v>1.587307513425533</v>
+        <v>1.58730751342554</v>
       </c>
       <c r="AD13">
-        <v>1.587918056901058</v>
+        <v>1.587918056901065</v>
       </c>
       <c r="AE13">
-        <v>1.588437203494673</v>
+        <v>1.58843720349468</v>
       </c>
       <c r="AF13">
-        <v>1.588878611545224</v>
+        <v>1.588878611545231</v>
       </c>
     </row>
   </sheetData>
